--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ahsg-Insr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ahsg-Insr.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>12.790333</v>
+        <v>12.800308</v>
       </c>
       <c r="N2">
-        <v>38.370999</v>
+        <v>38.400924</v>
       </c>
       <c r="O2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="P2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="Q2">
-        <v>0.7227604006083332</v>
+        <v>0.7233240712333334</v>
       </c>
       <c r="R2">
-        <v>6.504843605475</v>
+        <v>6.509916641100001</v>
       </c>
       <c r="S2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
       <c r="T2">
-        <v>0.2187140167239762</v>
+        <v>0.2552188303259509</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,16 +623,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.628896000000001</v>
+        <v>3.628896</v>
       </c>
       <c r="N3">
         <v>10.886688</v>
       </c>
       <c r="O3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="P3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="Q3">
         <v>0.2050628648</v>
@@ -641,10 +641,10 @@
         <v>1.8455657832</v>
       </c>
       <c r="S3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
       <c r="T3">
-        <v>0.06205392935692686</v>
+        <v>0.07235471150338896</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.859786</v>
+        <v>5.520799</v>
       </c>
       <c r="N4">
-        <v>20.579358</v>
+        <v>16.562397</v>
       </c>
       <c r="O4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="P4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="Q4">
-        <v>0.3876350738833333</v>
+        <v>0.3119711501583334</v>
       </c>
       <c r="R4">
-        <v>3.48871566495</v>
+        <v>2.807740351425</v>
       </c>
       <c r="S4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
       <c r="T4">
-        <v>0.1173019771984746</v>
+        <v>0.1100764031025409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.351654000000002</v>
+        <v>2.905047666666667</v>
       </c>
       <c r="N5">
-        <v>25.054962</v>
+        <v>8.715143000000001</v>
       </c>
       <c r="O5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="P5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="Q5">
-        <v>0.4719380481166668</v>
+        <v>0.1641594018972223</v>
       </c>
       <c r="R5">
-        <v>4.247442433050001</v>
+        <v>1.477434617075</v>
       </c>
       <c r="S5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
       <c r="T5">
-        <v>0.1428128409658187</v>
+        <v>0.0579222677710411</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>15.92892566666667</v>
+        <v>20.19342933333333</v>
       </c>
       <c r="N6">
-        <v>47.786777</v>
+        <v>60.580288</v>
       </c>
       <c r="O6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="P6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="Q6">
-        <v>0.9001170412138889</v>
+        <v>1.141097035911111</v>
       </c>
       <c r="R6">
-        <v>8.101053370925001</v>
+        <v>10.2698733232</v>
       </c>
       <c r="S6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
       <c r="T6">
-        <v>0.2723837850550339</v>
+        <v>0.4026265160746975</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.92011866666667</v>
+        <v>5.105766</v>
       </c>
       <c r="N7">
-        <v>32.76035599999999</v>
+        <v>15.317298</v>
       </c>
       <c r="O7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="P7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
       <c r="Q7">
-        <v>0.6170777056555555</v>
+        <v>0.28851832705</v>
       </c>
       <c r="R7">
-        <v>5.5536993509</v>
+        <v>2.59666494345</v>
       </c>
       <c r="S7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223807</v>
       </c>
       <c r="T7">
-        <v>0.1867334506997697</v>
+        <v>0.1018012712223806</v>
       </c>
     </row>
   </sheetData>
